--- a/responses.xlsx
+++ b/responses.xlsx
@@ -16,6 +16,119 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>1. Страна</t>
+  </si>
+  <si>
+    <t>2. Национальность</t>
+  </si>
+  <si>
+    <t>3. Как долго живёте</t>
+  </si>
+  <si>
+    <t>4. Где</t>
+  </si>
+  <si>
+    <t>5. Планы</t>
+  </si>
+  <si>
+    <t>6. Русский</t>
+  </si>
+  <si>
+    <t>7. Общение на работе</t>
+  </si>
+  <si>
+    <t>8. Общение вне работы</t>
+  </si>
+  <si>
+    <t>9. Дети должны</t>
+  </si>
+  <si>
+    <t>10. Медиа на:</t>
+  </si>
+  <si>
+    <t>11.1 Взятки на границе</t>
+  </si>
+  <si>
+    <t>11.2 Взятки в полиции</t>
+  </si>
+  <si>
+    <t>11.3 Расовая дискриминация</t>
+  </si>
+  <si>
+    <t>11.4 Религия</t>
+  </si>
+  <si>
+    <t>11.5 Преступления</t>
+  </si>
+  <si>
+    <t>11.6 Работа</t>
+  </si>
+  <si>
+    <t>11.7 Низкая зп</t>
+  </si>
+  <si>
+    <t>11.8 Работодатель мудак</t>
+  </si>
+  <si>
+    <t>11.9 Тяжёлый труд</t>
+  </si>
+  <si>
+    <t>11.10 Жильё</t>
+  </si>
+  <si>
+    <t>11.11 Медицина</t>
+  </si>
+  <si>
+    <t>11.12 Юри</t>
+  </si>
+  <si>
+    <t>11.13 Русский</t>
+  </si>
+  <si>
+    <t>11.14 Куда с проблемами</t>
+  </si>
+  <si>
+    <t>11.15 Где работать, жить</t>
+  </si>
+  <si>
+    <t>12. Есть диаспора?</t>
+  </si>
+  <si>
+    <t>13. А вы в ней?</t>
+  </si>
+  <si>
+    <t>14. Первый помощник</t>
+  </si>
+  <si>
+    <t>15. Гугл работы</t>
+  </si>
+  <si>
+    <t>16. Гугл жилья</t>
+  </si>
+  <si>
+    <t>17. НКО</t>
+  </si>
+  <si>
+    <t>18. Брак с местной</t>
+  </si>
+  <si>
+    <t>19. РФянин</t>
+  </si>
+  <si>
+    <t>20. Антимуслим</t>
+  </si>
+  <si>
+    <t>21. Возраст</t>
+  </si>
+  <si>
+    <t>22. Образование</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,81 +466,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>4</v>
-      </c>
-      <c r="I1">
-        <v>2</v>
-      </c>
-      <c r="J1">
-        <v>2</v>
-      </c>
-      <c r="K1">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>1</v>
-      </c>
-      <c r="N1">
-        <v>3</v>
-      </c>
-      <c r="O1">
-        <v>4</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-      <c r="R1">
-        <v>3</v>
-      </c>
-      <c r="S1">
-        <v>2</v>
-      </c>
-      <c r="T1">
-        <v>4</v>
-      </c>
-      <c r="U1">
-        <v>4</v>
-      </c>
-      <c r="V1">
-        <v>4</v>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -441,84 +596,126 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>4</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>4</v>
+      </c>
+      <c r="AH2">
+        <v>3</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <v>5</v>
+      </c>
+      <c r="AK2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -527,54 +724,99 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>3</v>
+      </c>
+      <c r="AJ3">
+        <v>4</v>
+      </c>
+      <c r="AK3">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -583,49 +825,94 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
       </c>
       <c r="V4">
         <v>1</v>
       </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>3</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -636,25 +923,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -666,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -687,24 +974,24 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -713,312 +1000,461 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>4</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>4</v>
+      </c>
+      <c r="AJ8">
+        <v>4</v>
+      </c>
+      <c r="AK8">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>9</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="S7">
-        <v>4</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>4</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>7</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>4</v>
-      </c>
-      <c r="S10">
-        <v>4</v>
-      </c>
-      <c r="T10">
-        <v>4</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>3</v>
+      </c>
+      <c r="AH11">
+        <v>2</v>
+      </c>
+      <c r="AI11">
+        <v>2</v>
+      </c>
+      <c r="AJ11">
+        <v>4</v>
+      </c>
+      <c r="AK11">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
